--- a/Problems/Binary Search.xlsx
+++ b/Problems/Binary Search.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Problems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Competitive_Programming_Codes\Problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870D42FF-2654-4FB8-BA40-64CBF799A384}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3547B8EF-4A0B-47E4-B70E-F8B215923AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BB7E3D0B-348A-407A-8B28-C440CD723D0B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>PROBLEMS</t>
   </si>
@@ -128,12 +128,73 @@
       <t xml:space="preserve">  (Highly advisable to see the code and learned from Code with demoralizer YT channel)</t>
     </r>
   </si>
+  <si>
+    <t>Array Stabilization (GCD version)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This problem is pure </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GOLD.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bruteforce solution is o(n^3). By using Binary search and segment tree this problem can be solved in o(nlognlogn)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">You are given an array A . At each step , the array should be replaced by another array B. b[i] = gcd(a[i], a[(i+1) % n]). What is the minimum step after which all the elements of the array will be equal. </t>
+  </si>
+  <si>
+    <t>https://codeforces.com/contest/1547/submission/122353282</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Here the equal element at the end will be the gcd of the whole array.  Here at each step i, we are taking gcd of segment of length (i+1). We are binary searching on the segment length. If a seg len is satisfing we are minimizing it. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> We are using segment tree to calculate range gcd.o(logn) </t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +287,21 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -326,13 +402,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -645,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C9898A-9ECF-4948-BCC0-B50754857C19}">
   <dimension ref="A1:G370"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -784,7 +860,7 @@
       <c r="B11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="10" t="s">
@@ -803,7 +879,7 @@
     <row r="12" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="16"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="14"/>
@@ -812,7 +888,7 @@
     <row r="13" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
       <c r="B13" s="11"/>
-      <c r="C13" s="16"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="14"/>
@@ -821,7 +897,7 @@
     <row r="14" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12"/>
       <c r="B14" s="11"/>
-      <c r="C14" s="16"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="14"/>
@@ -830,7 +906,7 @@
     <row r="15" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12"/>
       <c r="B15" s="11"/>
-      <c r="C15" s="16"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="14"/>
@@ -839,7 +915,7 @@
     <row r="16" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="16"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="14"/>
@@ -848,7 +924,7 @@
     <row r="17" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="16"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="14"/>
@@ -857,7 +933,7 @@
     <row r="18" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="16"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="14"/>
@@ -866,94 +942,104 @@
     <row r="19" spans="1:7" ht="42.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12"/>
       <c r="B19" s="11"/>
-      <c r="C19" s="16"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="14"/>
       <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12">
+      <c r="A20" s="11">
         <v>3</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="6"/>
+      <c r="B20" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="6"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="6"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="6"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="6"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="6"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="6"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="6"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="6"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
@@ -2530,8 +2616,9 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{94FA9E55-E18F-4D27-8A3F-CA031C210CD5}"/>
     <hyperlink ref="C11" r:id="rId2" xr:uid="{67E756C2-DFB4-4D47-9132-1B882856FCCC}"/>
+    <hyperlink ref="C20" r:id="rId3" xr:uid="{857AAF99-0265-490A-90A0-3FD3D594B716}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/Problems/Binary Search.xlsx
+++ b/Problems/Binary Search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Competitive_Programming_Codes\Problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3547B8EF-4A0B-47E4-B70E-F8B215923AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB8437F-44AC-497B-AE3B-50767732B564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BB7E3D0B-348A-407A-8B28-C440CD723D0B}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>PROBLEMS</t>
   </si>
@@ -188,6 +189,9 @@
       </rPr>
       <t xml:space="preserve"> We are using segment tree to calculate range gcd.o(logn) </t>
     </r>
+  </si>
+  <si>
+    <t>BS + Segment tree</t>
   </si>
 </sst>
 </file>
@@ -722,7 +726,7 @@
   <dimension ref="A1:G370"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:E28"/>
+      <selection activeCell="E29" sqref="E29:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -964,7 +968,9 @@
       <c r="E20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="14"/>
+      <c r="F20" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="G20" s="7" t="s">
         <v>20</v>
       </c>
